--- a/experiment/computation_report_solvers.xlsx
+++ b/experiment/computation_report_solvers.xlsx
@@ -347,13 +347,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -376,14 +380,14 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
@@ -410,7 +414,7 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -436,7 +440,7 @@
       <c r="B3" s="0" t="n">
         <v>283549.13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -447,7 +451,7 @@
       <c r="B4" s="0" t="n">
         <v>283781.77</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -458,7 +462,7 @@
       <c r="B5" s="0" t="n">
         <v>283612.46</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -469,7 +473,7 @@
       <c r="B6" s="0" t="n">
         <v>284948.96</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -480,7 +484,7 @@
       <c r="B7" s="0" t="n">
         <v>773.66</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>15.26</v>
       </c>
     </row>
@@ -491,7 +495,7 @@
       <c r="B8" s="0" t="n">
         <v>798.99</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>179.34</v>
       </c>
     </row>
@@ -502,7 +506,7 @@
       <c r="B9" s="0" t="n">
         <v>819.27</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>2369.61</v>
       </c>
     </row>
@@ -513,7 +517,7 @@
       <c r="B10" s="0" t="n">
         <v>-103.69</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -524,7 +528,7 @@
       <c r="B11" s="0" t="n">
         <v>-68.67</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -535,7 +539,7 @@
       <c r="B12" s="0" t="n">
         <v>-54.29</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -546,7 +550,7 @@
       <c r="B13" s="0" t="n">
         <v>-28.44</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -557,7 +561,7 @@
       <c r="B14" s="0" t="n">
         <v>1670.65</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>1.11</v>
       </c>
     </row>
@@ -568,7 +572,7 @@
       <c r="B15" s="0" t="n">
         <v>1629.26</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>1.42</v>
       </c>
     </row>
@@ -579,7 +583,7 @@
       <c r="B16" s="0" t="n">
         <v>1667.27</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>2.86</v>
       </c>
     </row>
@@ -590,7 +594,7 @@
       <c r="B17" s="0" t="n">
         <v>2597.19</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -601,7 +605,7 @@
       <c r="B18" s="0" t="n">
         <v>2513.51</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>3.18</v>
       </c>
     </row>
@@ -612,7 +616,7 @@
       <c r="B19" s="0" t="n">
         <v>2574.54</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>7.94</v>
       </c>
     </row>
@@ -623,7 +627,7 @@
       <c r="B20" s="0" t="n">
         <v>1420.95</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>22.17</v>
       </c>
     </row>
@@ -634,7 +638,7 @@
       <c r="B21" s="0" t="n">
         <v>1423.33</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>102.52</v>
       </c>
     </row>
@@ -645,7 +649,7 @@
       <c r="B22" s="0" t="n">
         <v>1465.63</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>42.04</v>
       </c>
     </row>
@@ -656,7 +660,7 @@
       <c r="B23" s="0" t="n">
         <v>1985.41</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>11.13</v>
       </c>
     </row>
@@ -667,7 +671,7 @@
       <c r="B24" s="0" t="n">
         <v>1923.84</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>24.13</v>
       </c>
     </row>
@@ -678,7 +682,7 @@
       <c r="B25" s="0" t="n">
         <v>1901.16</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>73.12</v>
       </c>
     </row>
@@ -689,7 +693,7 @@
       <c r="B26" s="0" t="n">
         <v>2071.34</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -700,7 +704,7 @@
       <c r="B27" s="0" t="n">
         <v>2284.04</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>4.03</v>
       </c>
     </row>
@@ -711,7 +715,7 @@
       <c r="B28" s="0" t="n">
         <v>2968.05</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>8.7</v>
       </c>
     </row>
@@ -722,7 +726,7 @@
       <c r="B29" s="0" t="n">
         <v>3075.65</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>12.08</v>
       </c>
     </row>
@@ -733,7 +737,7 @@
       <c r="B30" s="0" t="n">
         <v>124.82</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -744,7 +748,7 @@
       <c r="B31" s="0" t="n">
         <v>124.46</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -755,7 +759,7 @@
       <c r="B32" s="0" t="n">
         <v>124.89</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -766,7 +770,7 @@
       <c r="B33" s="0" t="n">
         <v>125.13</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -777,7 +781,7 @@
       <c r="B34" s="0" t="n">
         <v>32692100</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>262.29</v>
       </c>
     </row>
@@ -788,7 +792,7 @@
       <c r="B35" s="0" t="n">
         <v>38162700</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>273.41</v>
       </c>
     </row>
@@ -799,7 +803,7 @@
       <c r="B36" s="0" t="n">
         <v>29862600</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>258.55</v>
       </c>
     </row>
@@ -810,7 +814,7 @@
       <c r="B37" s="0" t="n">
         <v>40646200</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>251.44</v>
       </c>
     </row>
@@ -821,7 +825,7 @@
       <c r="B38" s="0" t="n">
         <v>31373600</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>651.83</v>
       </c>
     </row>
@@ -832,7 +836,7 @@
       <c r="B39" s="0" t="n">
         <v>37011600</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>374.19</v>
       </c>
     </row>
@@ -843,7 +847,7 @@
       <c r="B40" s="0" t="n">
         <v>31047200</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>534.04</v>
       </c>
     </row>
@@ -854,7 +858,7 @@
       <c r="B41" s="0" t="n">
         <v>2205120</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>1213.69</v>
       </c>
     </row>
@@ -865,7 +869,7 @@
       <c r="B42" s="0" t="n">
         <v>136932</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -876,7 +880,7 @@
       <c r="B43" s="0" t="n">
         <v>166365</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -887,7 +891,7 @@
       <c r="B44" s="0" t="n">
         <v>249445</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -898,7 +902,7 @@
       <c r="B45" s="0" t="n">
         <v>9688.75</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -909,7 +913,7 @@
       <c r="B46" s="0" t="n">
         <v>9677.18</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -920,7 +924,7 @@
       <c r="B47" s="0" t="n">
         <v>9671.68</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -931,7 +935,7 @@
       <c r="B48" s="0" t="n">
         <v>9692.27</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -942,7 +946,7 @@
       <c r="B49" s="0" t="n">
         <v>9688.88</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -953,7 +957,7 @@
       <c r="B50" s="0" t="n">
         <v>-127.7</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -964,7 +968,7 @@
       <c r="B51" s="0" t="n">
         <v>-125.88</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -975,7 +979,7 @@
       <c r="B52" s="0" t="n">
         <v>-323.4</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -986,7 +990,7 @@
       <c r="B53" s="0" t="n">
         <v>-329.89</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -997,7 +1001,7 @@
       <c r="B54" s="0" t="n">
         <v>-271.2</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1008,7 +1012,7 @@
       <c r="B55" s="0" t="n">
         <v>-289.6</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1019,7 +1023,7 @@
       <c r="B56" s="0" t="n">
         <v>-313.14</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -1030,7 +1034,7 @@
       <c r="B57" s="0" t="n">
         <v>-354.7</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>1.29</v>
       </c>
     </row>
@@ -1041,7 +1045,7 @@
       <c r="B58" s="0" t="n">
         <v>-331.25</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>5.42</v>
       </c>
     </row>
@@ -1052,7 +1056,7 @@
       <c r="B59" s="0" t="n">
         <v>-345.54</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>181.35</v>
       </c>
     </row>
@@ -1063,7 +1067,7 @@
       <c r="B60" s="0" t="n">
         <v>-350.82</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>584.54</v>
       </c>
     </row>
@@ -1074,7 +1078,7 @@
       <c r="B61" s="0" t="n">
         <v>-349.71</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>1541.44</v>
       </c>
     </row>
@@ -1085,7 +1089,7 @@
       <c r="B62" s="0" t="n">
         <v>2473720</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>2807.89</v>
       </c>
     </row>
@@ -1096,7 +1100,7 @@
       <c r="B63" s="0" t="n">
         <v>1562830</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>1280.31</v>
       </c>
     </row>
@@ -1107,7 +1111,7 @@
       <c r="B64" s="0" t="n">
         <v>1633280</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>1082.81</v>
       </c>
     </row>
@@ -1118,7 +1122,7 @@
       <c r="B65" s="0" t="n">
         <v>1075950</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>702.16</v>
       </c>
     </row>
@@ -1129,7 +1133,7 @@
       <c r="B66" s="0" t="n">
         <v>4682171.35</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1140,7 +1144,7 @@
       <c r="B67" s="0" t="n">
         <v>3127121.14</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1151,7 +1155,7 @@
       <c r="B68" s="0" t="n">
         <v>1797560</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>2407.82</v>
       </c>
     </row>
@@ -1162,7 +1166,7 @@
       <c r="B69" s="0" t="n">
         <v>1262630</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>1856.55</v>
       </c>
     </row>
